--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03538133333333333</v>
+        <v>0.05166833333333334</v>
       </c>
       <c r="H2">
-        <v>0.106144</v>
+        <v>0.155005</v>
       </c>
       <c r="I2">
-        <v>0.0113454327482436</v>
+        <v>0.01629802083219426</v>
       </c>
       <c r="J2">
-        <v>0.01134543274824361</v>
+        <v>0.01629802083219426</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.8653686666666668</v>
+        <v>0.018839</v>
       </c>
       <c r="N2">
-        <v>2.596106</v>
+        <v>0.056517</v>
       </c>
       <c r="O2">
-        <v>0.7337618712085691</v>
+        <v>0.01572277703685034</v>
       </c>
       <c r="P2">
-        <v>0.7337618712085689</v>
+        <v>0.01572277703685034</v>
       </c>
       <c r="Q2">
-        <v>0.03061789725155556</v>
+        <v>0.0009733797316666666</v>
       </c>
       <c r="R2">
-        <v>0.275561075264</v>
+        <v>0.008760417584999999</v>
       </c>
       <c r="S2">
-        <v>0.008324845963022205</v>
+        <v>0.0002562501476865324</v>
       </c>
       <c r="T2">
-        <v>0.008324845963022205</v>
+        <v>0.0002562501476865324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03538133333333333</v>
+        <v>0.05166833333333334</v>
       </c>
       <c r="H3">
-        <v>0.106144</v>
+        <v>0.155005</v>
       </c>
       <c r="I3">
-        <v>0.0113454327482436</v>
+        <v>0.01629802083219426</v>
       </c>
       <c r="J3">
-        <v>0.01134543274824361</v>
+        <v>0.01629802083219426</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,60 +614,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3139903333333333</v>
+        <v>0.8653686666666666</v>
       </c>
       <c r="N3">
-        <v>0.941971</v>
+        <v>2.596106</v>
       </c>
       <c r="O3">
-        <v>0.2662381287914311</v>
+        <v>0.7222250969094145</v>
       </c>
       <c r="P3">
-        <v>0.2662381287914311</v>
+        <v>0.7222250969094145</v>
       </c>
       <c r="Q3">
-        <v>0.01110939664711111</v>
+        <v>0.04471215672555556</v>
       </c>
       <c r="R3">
-        <v>0.099984569824</v>
+        <v>0.40240941053</v>
       </c>
       <c r="S3">
-        <v>0.0030205867852214</v>
+        <v>0.01177083967496316</v>
       </c>
       <c r="T3">
-        <v>0.003020586785221401</v>
+        <v>0.01177083967496316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.083171666666666</v>
+        <v>0.05166833333333334</v>
       </c>
       <c r="H4">
-        <v>9.249514999999999</v>
+        <v>0.155005</v>
       </c>
       <c r="I4">
-        <v>0.9886545672517564</v>
+        <v>0.01629802083219426</v>
       </c>
       <c r="J4">
-        <v>0.9886545672517564</v>
+        <v>0.01629802083219426</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8653686666666668</v>
+        <v>0.3139903333333333</v>
       </c>
       <c r="N4">
-        <v>2.596106</v>
+        <v>0.941971</v>
       </c>
       <c r="O4">
-        <v>0.7337618712085691</v>
+        <v>0.2620521260537351</v>
       </c>
       <c r="P4">
-        <v>0.7337618712085689</v>
+        <v>0.2620521260537351</v>
       </c>
       <c r="Q4">
-        <v>2.668080154287778</v>
+        <v>0.01622335720611111</v>
       </c>
       <c r="R4">
-        <v>24.01272138859</v>
+        <v>0.146010214855</v>
       </c>
       <c r="S4">
-        <v>0.7254370252455469</v>
+        <v>0.004270931009544571</v>
       </c>
       <c r="T4">
-        <v>0.7254370252455468</v>
+        <v>0.004270931009544571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.03538133333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.106144</v>
+      </c>
+      <c r="I5">
+        <v>0.01116052464896247</v>
+      </c>
+      <c r="J5">
+        <v>0.01116052464896247</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.018839</v>
+      </c>
+      <c r="N5">
+        <v>0.056517</v>
+      </c>
+      <c r="O5">
+        <v>0.01572277703685034</v>
+      </c>
+      <c r="P5">
+        <v>0.01572277703685034</v>
+      </c>
+      <c r="Q5">
+        <v>0.0006665489386666666</v>
+      </c>
+      <c r="R5">
+        <v>0.005998940448</v>
+      </c>
+      <c r="S5">
+        <v>0.0001754744406699093</v>
+      </c>
+      <c r="T5">
+        <v>0.0001754744406699093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.03538133333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.106144</v>
+      </c>
+      <c r="I6">
+        <v>0.01116052464896247</v>
+      </c>
+      <c r="J6">
+        <v>0.01116052464896247</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.8653686666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.596106</v>
+      </c>
+      <c r="O6">
+        <v>0.7222250969094145</v>
+      </c>
+      <c r="P6">
+        <v>0.7222250969094145</v>
+      </c>
+      <c r="Q6">
+        <v>0.03061789725155555</v>
+      </c>
+      <c r="R6">
+        <v>0.275561075264</v>
+      </c>
+      <c r="S6">
+        <v>0.008060410996156828</v>
+      </c>
+      <c r="T6">
+        <v>0.008060410996156829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.03538133333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.106144</v>
+      </c>
+      <c r="I7">
+        <v>0.01116052464896247</v>
+      </c>
+      <c r="J7">
+        <v>0.01116052464896247</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3139903333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.941971</v>
+      </c>
+      <c r="O7">
+        <v>0.2620521260537351</v>
+      </c>
+      <c r="P7">
+        <v>0.2620521260537351</v>
+      </c>
+      <c r="Q7">
+        <v>0.01110939664711111</v>
+      </c>
+      <c r="R7">
+        <v>0.099984569824</v>
+      </c>
+      <c r="S7">
+        <v>0.002924639212135731</v>
+      </c>
+      <c r="T7">
+        <v>0.002924639212135731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.083171666666667</v>
+      </c>
+      <c r="H8">
+        <v>9.249515000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9725414545188432</v>
+      </c>
+      <c r="J8">
+        <v>0.9725414545188433</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.018839</v>
+      </c>
+      <c r="N8">
+        <v>0.056517</v>
+      </c>
+      <c r="O8">
+        <v>0.01572277703685034</v>
+      </c>
+      <c r="P8">
+        <v>0.01572277703685034</v>
+      </c>
+      <c r="Q8">
+        <v>0.05808387102833333</v>
+      </c>
+      <c r="R8">
+        <v>0.522754839255</v>
+      </c>
+      <c r="S8">
+        <v>0.01529105244849389</v>
+      </c>
+      <c r="T8">
+        <v>0.01529105244849389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.083171666666666</v>
-      </c>
-      <c r="H5">
-        <v>9.249514999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.9886545672517564</v>
-      </c>
-      <c r="J5">
-        <v>0.9886545672517564</v>
-      </c>
-      <c r="K5">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.083171666666667</v>
+      </c>
+      <c r="H9">
+        <v>9.249515000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9725414545188432</v>
+      </c>
+      <c r="J9">
+        <v>0.9725414545188433</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8653686666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.596106</v>
+      </c>
+      <c r="O9">
+        <v>0.7222250969094145</v>
+      </c>
+      <c r="P9">
+        <v>0.7222250969094145</v>
+      </c>
+      <c r="Q9">
+        <v>2.668080154287777</v>
+      </c>
+      <c r="R9">
+        <v>24.01272138859</v>
+      </c>
+      <c r="S9">
+        <v>0.7023938462382945</v>
+      </c>
+      <c r="T9">
+        <v>0.7023938462382946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.083171666666667</v>
+      </c>
+      <c r="H10">
+        <v>9.249515000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.9725414545188432</v>
+      </c>
+      <c r="J10">
+        <v>0.9725414545188433</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>0.3139903333333333</v>
       </c>
-      <c r="N5">
+      <c r="N10">
         <v>0.941971</v>
       </c>
-      <c r="O5">
-        <v>0.2662381287914311</v>
-      </c>
-      <c r="P5">
-        <v>0.2662381287914311</v>
-      </c>
-      <c r="Q5">
-        <v>0.9680860993405555</v>
-      </c>
-      <c r="R5">
-        <v>8.712774894064999</v>
-      </c>
-      <c r="S5">
-        <v>0.2632175420062097</v>
-      </c>
-      <c r="T5">
-        <v>0.2632175420062097</v>
+      <c r="O10">
+        <v>0.2620521260537351</v>
+      </c>
+      <c r="P10">
+        <v>0.2620521260537351</v>
+      </c>
+      <c r="Q10">
+        <v>0.9680860993405556</v>
+      </c>
+      <c r="R10">
+        <v>8.712774894065001</v>
+      </c>
+      <c r="S10">
+        <v>0.2548565558320548</v>
+      </c>
+      <c r="T10">
+        <v>0.2548565558320549</v>
       </c>
     </row>
   </sheetData>
